--- a/data/league_data/spain/18/spain_std.xlsx
+++ b/data/league_data/spain/18/spain_std.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E0284B-F3A8-BA4D-936E-24F1C5DDAC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD088F89-8154-0948-86DD-FB653F818952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="524">
   <si>
     <t>Player</t>
   </si>
@@ -610,9 +610,6 @@
     <t>Riza Durmisi</t>
   </si>
   <si>
-    <t>Nacho</t>
-  </si>
-  <si>
     <t>Sergio Asenjo</t>
   </si>
   <si>
@@ -1589,12 +1586,18 @@
   </si>
   <si>
     <t>Bruno Gama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2455,14 +2458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2488,7 +2491,7 @@
     <col min="27" max="27" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
@@ -4065,7 +4068,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>61</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
@@ -4729,7 +4732,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
@@ -4895,7 +4898,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
@@ -5393,7 +5396,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -5725,7 +5728,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
@@ -5891,7 +5894,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>80</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>81</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>83</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>84</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>85</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>86</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>87</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>88</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>89</v>
       </c>
@@ -6804,7 +6807,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>90</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>91</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>92</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>93</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>94</v>
       </c>
@@ -7219,7 +7222,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>95</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>96</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>97</v>
       </c>
@@ -7468,7 +7471,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>98</v>
       </c>
@@ -7551,7 +7554,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>99</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>100</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>101</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>102</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>103</v>
       </c>
@@ -7966,7 +7969,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>104</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>105</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>106</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>107</v>
       </c>
@@ -8298,9 +8301,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>108</v>
+        <v>523</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>76</v>
@@ -8381,7 +8384,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>109</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>110</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>111</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>112</v>
       </c>
@@ -8713,7 +8716,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>113</v>
       </c>
@@ -8796,7 +8799,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>114</v>
       </c>
@@ -8879,7 +8882,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>116</v>
       </c>
@@ -8962,7 +8965,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>117</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>118</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>119</v>
       </c>
@@ -9211,7 +9214,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>120</v>
       </c>
@@ -9294,7 +9297,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>121</v>
       </c>
@@ -9377,7 +9380,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>122</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>123</v>
       </c>
@@ -9543,7 +9546,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>124</v>
       </c>
@@ -9626,7 +9629,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>125</v>
       </c>
@@ -9709,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>126</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>127</v>
       </c>
@@ -9875,7 +9878,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>128</v>
       </c>
@@ -9958,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>129</v>
       </c>
@@ -10041,7 +10044,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>130</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>131</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>132</v>
       </c>
@@ -10290,7 +10293,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>133</v>
       </c>
@@ -10373,7 +10376,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>134</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>135</v>
       </c>
@@ -10539,7 +10542,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>136</v>
       </c>
@@ -10622,7 +10625,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>137</v>
       </c>
@@ -10705,7 +10708,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>138</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>139</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>140</v>
       </c>
@@ -10954,7 +10957,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>141</v>
       </c>
@@ -11037,7 +11040,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>142</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>143</v>
       </c>
@@ -11203,7 +11206,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>144</v>
       </c>
@@ -11286,7 +11289,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>145</v>
       </c>
@@ -11369,7 +11372,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>146</v>
       </c>
@@ -11452,7 +11455,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>147</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>148</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>149</v>
       </c>
@@ -11701,7 +11704,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>150</v>
       </c>
@@ -11784,7 +11787,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>151</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>152</v>
       </c>
@@ -11950,7 +11953,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>153</v>
       </c>
@@ -12033,7 +12036,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>154</v>
       </c>
@@ -12116,7 +12119,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>155</v>
       </c>
@@ -12199,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>156</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>157</v>
       </c>
@@ -12365,7 +12368,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>158</v>
       </c>
@@ -12448,7 +12451,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>159</v>
       </c>
@@ -12531,7 +12534,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>160</v>
       </c>
@@ -12614,7 +12617,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>161</v>
       </c>
@@ -12697,7 +12700,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>162</v>
       </c>
@@ -12780,7 +12783,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>163</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>164</v>
       </c>
@@ -12946,7 +12949,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>165</v>
       </c>
@@ -13029,7 +13032,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>166</v>
       </c>
@@ -13112,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>167</v>
       </c>
@@ -13195,7 +13198,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>168</v>
       </c>
@@ -13278,7 +13281,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>169</v>
       </c>
@@ -13361,7 +13364,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>170</v>
       </c>
@@ -13444,7 +13447,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>171</v>
       </c>
@@ -13527,7 +13530,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>172</v>
       </c>
@@ -13610,7 +13613,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>173</v>
       </c>
@@ -13693,7 +13696,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>174</v>
       </c>
@@ -13776,7 +13779,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>175</v>
       </c>
@@ -13859,7 +13862,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>176</v>
       </c>
@@ -13942,7 +13945,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>177</v>
       </c>
@@ -14025,7 +14028,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>178</v>
       </c>
@@ -14108,7 +14111,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>179</v>
       </c>
@@ -14191,7 +14194,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>180</v>
       </c>
@@ -14274,7 +14277,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>181</v>
       </c>
@@ -14357,7 +14360,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>182</v>
       </c>
@@ -14440,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>183</v>
       </c>
@@ -14523,7 +14526,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>184</v>
       </c>
@@ -14606,7 +14609,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>185</v>
       </c>
@@ -14689,7 +14692,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>186</v>
       </c>
@@ -14772,7 +14775,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>187</v>
       </c>
@@ -14855,7 +14858,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>188</v>
       </c>
@@ -14938,7 +14941,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>189</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>190</v>
       </c>
@@ -15104,7 +15107,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>191</v>
       </c>
@@ -15187,7 +15190,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>192</v>
       </c>
@@ -15270,7 +15273,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>193</v>
       </c>
@@ -15353,7 +15356,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>194</v>
       </c>
@@ -15436,7 +15439,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>195</v>
       </c>
@@ -15519,9 +15522,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>196</v>
+        <v>522</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>115</v>
@@ -15602,9 +15605,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>36</v>
@@ -15685,9 +15688,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>36</v>
@@ -15768,9 +15771,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>63</v>
@@ -15851,9 +15854,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>34</v>
@@ -15934,9 +15937,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>43</v>
@@ -16017,9 +16020,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>57</v>
@@ -16100,9 +16103,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>46</v>
@@ -16183,9 +16186,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>63</v>
@@ -16266,9 +16269,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>55</v>
@@ -16349,9 +16352,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>55</v>
@@ -16432,9 +16435,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>43</v>
@@ -16515,9 +16518,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>46</v>
@@ -16598,9 +16601,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>57</v>
@@ -16681,9 +16684,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>115</v>
@@ -16764,9 +16767,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>38</v>
@@ -16847,9 +16850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>28</v>
@@ -16930,9 +16933,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>34</v>
@@ -17013,9 +17016,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>40</v>
@@ -17096,9 +17099,9 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>21</v>
@@ -17179,9 +17182,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>40</v>
@@ -17262,9 +17265,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>76</v>
@@ -17345,9 +17348,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>55</v>
@@ -17428,9 +17431,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>38</v>
@@ -17511,9 +17514,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>28</v>
@@ -17594,9 +17597,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="183" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>115</v>
@@ -17677,9 +17680,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>48</v>
@@ -17760,9 +17763,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>34</v>
@@ -17843,9 +17846,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>23</v>
@@ -17926,9 +17929,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>38</v>
@@ -18009,9 +18012,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>60</v>
@@ -18092,9 +18095,9 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>30</v>
@@ -18175,9 +18178,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>115</v>
@@ -18258,9 +18261,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>40</v>
@@ -18341,9 +18344,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>55</v>
@@ -18424,9 +18427,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>53</v>
@@ -18507,9 +18510,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>34</v>
@@ -18590,9 +18593,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>115</v>
@@ -18673,9 +18676,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>55</v>
@@ -18756,9 +18759,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>60</v>
@@ -18839,9 +18842,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>60</v>
@@ -18922,9 +18925,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>53</v>
@@ -19005,9 +19008,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>32</v>
@@ -19088,9 +19091,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>21</v>
@@ -19171,9 +19174,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>76</v>
@@ -19254,9 +19257,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>60</v>
@@ -19337,9 +19340,9 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>57</v>
@@ -19420,9 +19423,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>26</v>
@@ -19503,9 +19506,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>26</v>
@@ -19586,9 +19589,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>115</v>
@@ -19669,9 +19672,9 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>43</v>
@@ -19752,9 +19755,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>26</v>
@@ -19835,9 +19838,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>76</v>
@@ -19918,9 +19921,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>21</v>
@@ -20001,9 +20004,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>53</v>
@@ -20084,9 +20087,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>43</v>
@@ -20167,9 +20170,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>40</v>
@@ -20250,9 +20253,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>43</v>
@@ -20333,9 +20336,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>46</v>
@@ -20416,9 +20419,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>60</v>
@@ -20499,9 +20502,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>34</v>
@@ -20582,9 +20585,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>60</v>
@@ -20665,9 +20668,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>40</v>
@@ -20748,9 +20751,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>55</v>
@@ -20831,9 +20834,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>40</v>
@@ -20914,9 +20917,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>55</v>
@@ -20997,9 +21000,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>34</v>
@@ -21080,9 +21083,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>32</v>
@@ -21163,9 +21166,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="226" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>32</v>
@@ -21246,9 +21249,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>60</v>
@@ -21329,9 +21332,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="228" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>46</v>
@@ -21412,9 +21415,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>40</v>
@@ -21495,9 +21498,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>63</v>
@@ -21578,9 +21581,9 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="231" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>63</v>
@@ -21661,9 +21664,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="232" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>76</v>
@@ -21744,9 +21747,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>30</v>
@@ -21827,9 +21830,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="234" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>46</v>
@@ -21910,9 +21913,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>40</v>
@@ -21993,9 +21996,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="236" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>23</v>
@@ -22076,9 +22079,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>23</v>
@@ -22159,9 +22162,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>46</v>
@@ -22242,9 +22245,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>38</v>
@@ -22325,9 +22328,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="240" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>21</v>
@@ -22408,9 +22411,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>28</v>
@@ -22491,9 +22494,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>40</v>
@@ -22574,9 +22577,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="243" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>38</v>
@@ -22657,9 +22660,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="244" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>23</v>
@@ -22740,9 +22743,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>38</v>
@@ -22823,9 +22826,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="246" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>30</v>
@@ -22906,9 +22909,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="247" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>76</v>
@@ -22989,9 +22992,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="248" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>43</v>
@@ -23072,9 +23075,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="249" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>53</v>
@@ -23155,9 +23158,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="250" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>43</v>
@@ -23238,9 +23241,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>76</v>
@@ -23321,9 +23324,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="252" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>34</v>
@@ -23404,9 +23407,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="253" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>76</v>
@@ -23487,9 +23490,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="254" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>57</v>
@@ -23570,9 +23573,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="255" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>43</v>
@@ -23653,9 +23656,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="256" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>43</v>
@@ -23736,7 +23739,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>108</v>
       </c>
@@ -23819,9 +23822,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="258" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>53</v>
@@ -23902,9 +23905,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>55</v>
@@ -23985,9 +23988,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="260" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>63</v>
@@ -24068,9 +24071,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="261" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>57</v>
@@ -24151,9 +24154,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>32</v>
@@ -24234,9 +24237,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>21</v>
@@ -24317,9 +24320,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="264" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>53</v>
@@ -24400,9 +24403,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="265" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>46</v>
@@ -24483,7 +24486,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="266" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>52</v>
       </c>
@@ -24566,9 +24569,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>32</v>
@@ -24649,9 +24652,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="268" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>46</v>
@@ -24732,9 +24735,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="269" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>28</v>
@@ -24815,9 +24818,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="270" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>55</v>
@@ -24898,9 +24901,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>36</v>
@@ -24981,9 +24984,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>36</v>
@@ -25064,9 +25067,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>57</v>
@@ -25147,9 +25150,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>46</v>
@@ -25230,9 +25233,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>60</v>
@@ -25313,9 +25316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>57</v>
@@ -25396,9 +25399,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>34</v>
@@ -25479,9 +25482,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>21</v>
@@ -25562,9 +25565,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>53</v>
@@ -25645,9 +25648,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>46</v>
@@ -25728,9 +25731,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>23</v>
@@ -25811,9 +25814,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>43</v>
@@ -25894,9 +25897,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="283" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>23</v>
@@ -25977,9 +25980,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="284" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>34</v>
@@ -26060,9 +26063,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>36</v>
@@ -26143,9 +26146,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="286" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>60</v>
@@ -26226,9 +26229,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>57</v>
@@ -26309,9 +26312,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="288" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>60</v>
@@ -26392,9 +26395,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>32</v>
@@ -26475,9 +26478,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="290" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>76</v>
@@ -26558,9 +26561,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>46</v>
@@ -26641,9 +26644,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="292" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>36</v>
@@ -26724,9 +26727,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>26</v>
@@ -26807,9 +26810,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="294" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>36</v>
@@ -26890,9 +26893,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>32</v>
@@ -26973,9 +26976,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="296" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>36</v>
@@ -27056,9 +27059,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>76</v>
@@ -27139,9 +27142,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="298" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>48</v>
@@ -27222,9 +27225,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>21</v>
@@ -27305,9 +27308,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="300" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>21</v>
@@ -27388,9 +27391,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>36</v>
@@ -27471,9 +27474,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="302" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>38</v>
@@ -27554,9 +27557,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>34</v>
@@ -27637,9 +27640,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="304" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>23</v>
@@ -27720,9 +27723,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>63</v>
@@ -27803,9 +27806,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="306" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>55</v>
@@ -27886,9 +27889,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>57</v>
@@ -27969,9 +27972,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="308" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>43</v>
@@ -28052,9 +28055,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>34</v>
@@ -28135,9 +28138,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="310" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>40</v>
@@ -28218,9 +28221,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>53</v>
@@ -28301,9 +28304,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="312" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>23</v>
@@ -28384,9 +28387,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>55</v>
@@ -28467,9 +28470,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="314" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>26</v>
@@ -28550,9 +28553,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>55</v>
@@ -28633,9 +28636,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="316" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>43</v>
@@ -28716,9 +28719,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>28</v>
@@ -28799,9 +28802,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="318" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>32</v>
@@ -28882,9 +28885,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>26</v>
@@ -28965,9 +28968,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="320" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>34</v>
@@ -29048,9 +29051,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>43</v>
@@ -29131,9 +29134,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="322" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>21</v>
@@ -29214,9 +29217,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>55</v>
@@ -29297,9 +29300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>57</v>
@@ -29380,9 +29383,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>115</v>
@@ -29463,9 +29466,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="326" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>46</v>
@@ -29546,9 +29549,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>55</v>
@@ -29629,9 +29632,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="328" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>30</v>
@@ -29712,9 +29715,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>115</v>
@@ -29795,9 +29798,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="330" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>21</v>
@@ -29878,9 +29881,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>55</v>
@@ -29961,9 +29964,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="332" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>23</v>
@@ -30044,9 +30047,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="333" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>38</v>
@@ -30127,9 +30130,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="334" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>21</v>
@@ -30210,9 +30213,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>32</v>
@@ -30293,9 +30296,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="336" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>36</v>
@@ -30376,9 +30379,9 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>32</v>
@@ -30459,9 +30462,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="338" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>48</v>
@@ -30542,9 +30545,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>53</v>
@@ -30625,9 +30628,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="340" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>28</v>
@@ -30708,9 +30711,9 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>21</v>
@@ -30791,9 +30794,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="342" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>26</v>
@@ -30874,9 +30877,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>115</v>
@@ -30957,9 +30960,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>32</v>
@@ -31040,9 +31043,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>23</v>
@@ -31123,9 +31126,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="346" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>46</v>
@@ -31206,9 +31209,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="347" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>38</v>
@@ -31289,9 +31292,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="348" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>48</v>
@@ -31372,9 +31375,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>46</v>
@@ -31455,9 +31458,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="350" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>57</v>
@@ -31538,9 +31541,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>30</v>
@@ -31621,9 +31624,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="352" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>60</v>
@@ -31704,9 +31707,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>63</v>
@@ -31787,9 +31790,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="354" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>34</v>
@@ -31870,9 +31873,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>76</v>
@@ -31953,9 +31956,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="356" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>34</v>
@@ -32036,9 +32039,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="357" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>76</v>
@@ -32119,9 +32122,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="358" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>40</v>
@@ -32202,9 +32205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>48</v>
@@ -32285,9 +32288,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>46</v>
@@ -32368,9 +32371,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>115</v>
@@ -32451,9 +32454,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="362" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>34</v>
@@ -32534,9 +32537,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="363" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>21</v>
@@ -32617,9 +32620,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="364" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>46</v>
@@ -32700,9 +32703,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="365" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>53</v>
@@ -32783,9 +32786,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="366" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>30</v>
@@ -32866,9 +32869,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="367" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>76</v>
@@ -32949,9 +32952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>40</v>
@@ -33032,9 +33035,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>60</v>
@@ -33115,9 +33118,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="370" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>46</v>
@@ -33198,9 +33201,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="371" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>28</v>
@@ -33281,9 +33284,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="372" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>28</v>
@@ -33364,9 +33367,9 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="373" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -33447,9 +33450,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="374" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>46</v>
@@ -33530,9 +33533,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="375" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -33613,9 +33616,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="376" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>60</v>
@@ -33696,9 +33699,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="377" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>76</v>
@@ -33779,9 +33782,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="378" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>46</v>
@@ -33862,9 +33865,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="379" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>38</v>
@@ -33945,9 +33948,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="380" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>34</v>
@@ -34028,9 +34031,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="381" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>53</v>
@@ -34111,9 +34114,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="382" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>34</v>
@@ -34194,9 +34197,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="383" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>63</v>
@@ -34277,9 +34280,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="384" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>36</v>
@@ -34360,9 +34363,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="385" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>28</v>
@@ -34443,9 +34446,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="386" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>46</v>
@@ -34526,9 +34529,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="387" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>115</v>
@@ -34609,9 +34612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>55</v>
@@ -34692,9 +34695,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="389" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>34</v>
@@ -34775,9 +34778,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="390" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>43</v>
@@ -34858,9 +34861,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="391" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>26</v>
@@ -34941,9 +34944,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="392" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>28</v>
@@ -35024,9 +35027,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="393" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>55</v>
@@ -35107,9 +35110,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="394" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>30</v>
@@ -35190,9 +35193,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="395" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>43</v>
@@ -35273,9 +35276,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="396" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>46</v>
@@ -35356,9 +35359,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="397" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>115</v>
@@ -35439,9 +35442,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>63</v>
@@ -35522,9 +35525,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="399" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>34</v>
@@ -35587,9 +35590,9 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>46</v>
@@ -35670,9 +35673,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>46</v>
@@ -35753,9 +35756,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="402" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>60</v>
@@ -35836,9 +35839,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>36</v>
@@ -35919,9 +35922,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>30</v>
@@ -36002,9 +36005,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="405" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>60</v>
@@ -36085,9 +36088,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="406" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>28</v>
@@ -36168,9 +36171,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="407" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>53</v>
@@ -36251,9 +36254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>63</v>
@@ -36334,9 +36337,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="409" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>76</v>
@@ -36417,9 +36420,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="410" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>60</v>
@@ -36500,9 +36503,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="411" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>28</v>
@@ -36583,9 +36586,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="412" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>53</v>
@@ -36666,9 +36669,9 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="413" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>34</v>
@@ -36749,9 +36752,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="414" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>46</v>
@@ -36832,9 +36835,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="415" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>30</v>
@@ -36915,9 +36918,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="416" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>53</v>
@@ -36998,9 +37001,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="417" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>34</v>
@@ -37081,9 +37084,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="418" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>48</v>
@@ -37164,9 +37167,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="419" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>46</v>
@@ -37247,9 +37250,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="420" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>28</v>
@@ -37330,9 +37333,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="421" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>60</v>
@@ -37413,9 +37416,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="422" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>30</v>
@@ -37496,9 +37499,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="423" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>63</v>
@@ -37579,9 +37582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>30</v>
@@ -37662,9 +37665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>55</v>
@@ -37745,9 +37748,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="426" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>63</v>
@@ -37828,9 +37831,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>23</v>
@@ -37911,9 +37914,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="428" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>48</v>
@@ -37994,9 +37997,9 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="429" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>23</v>
@@ -38077,9 +38080,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="430" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>23</v>
@@ -38160,9 +38163,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="431" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>55</v>
@@ -38243,9 +38246,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="432" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>57</v>
@@ -38326,9 +38329,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="433" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>57</v>
@@ -38409,9 +38412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>34</v>
@@ -38492,9 +38495,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="435" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>115</v>
@@ -38575,9 +38578,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="436" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>53</v>
@@ -38658,9 +38661,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="437" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>60</v>
@@ -38741,9 +38744,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="438" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>48</v>
@@ -38824,9 +38827,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="439" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>34</v>
@@ -38907,9 +38910,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="440" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>40</v>
@@ -38990,9 +38993,9 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="441" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>76</v>
@@ -39073,9 +39076,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>76</v>
@@ -39156,9 +39159,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="443" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>23</v>
@@ -39239,9 +39242,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="444" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>32</v>
@@ -39322,9 +39325,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="445" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>28</v>
@@ -39405,9 +39408,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="446" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>57</v>
@@ -39488,9 +39491,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="447" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>32</v>
@@ -39571,9 +39574,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="448" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>34</v>
@@ -39654,9 +39657,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>46</v>
@@ -39737,9 +39740,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="450" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>115</v>
@@ -39820,9 +39823,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="451" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>60</v>
@@ -39903,9 +39906,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="452" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>48</v>
@@ -39986,9 +39989,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="453" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>63</v>
@@ -40069,9 +40072,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="454" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>40</v>
@@ -40152,9 +40155,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>57</v>
@@ -40235,9 +40238,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="456" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>57</v>
@@ -40318,9 +40321,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="457" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>38</v>
@@ -40401,9 +40404,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="458" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>55</v>
@@ -40484,9 +40487,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="459" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>53</v>
@@ -40567,9 +40570,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="460" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>21</v>
@@ -40650,9 +40653,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="461" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>55</v>
@@ -40733,9 +40736,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="462" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>21</v>
@@ -40816,9 +40819,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="463" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>26</v>
@@ -40899,9 +40902,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="464" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>57</v>
@@ -40982,9 +40985,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="465" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>23</v>
@@ -41065,9 +41068,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="466" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>46</v>
@@ -41148,9 +41151,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="467" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>32</v>
@@ -41231,9 +41234,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="468" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>40</v>
@@ -41314,9 +41317,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="469" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>34</v>
@@ -41397,9 +41400,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="470" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>63</v>
@@ -41480,9 +41483,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="471" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>36</v>
@@ -41563,9 +41566,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="472" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>36</v>
@@ -41646,9 +41649,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="473" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>43</v>
@@ -41729,9 +41732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>36</v>
@@ -41812,9 +41815,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>26</v>
@@ -41895,9 +41898,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="476" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>40</v>
@@ -41978,9 +41981,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="477" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>36</v>
@@ -42061,9 +42064,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="478" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>57</v>
@@ -42144,9 +42147,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="479" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>34</v>
@@ -42227,9 +42230,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="480" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>55</v>
@@ -42310,9 +42313,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>60</v>
@@ -42393,9 +42396,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="482" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>46</v>
@@ -42476,9 +42479,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>40</v>
@@ -42559,9 +42562,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="484" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>30</v>
@@ -42642,9 +42645,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="485" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>48</v>
@@ -42725,9 +42728,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="486" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>43</v>
@@ -42808,9 +42811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>23</v>
@@ -42891,9 +42894,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="488" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>34</v>
@@ -42974,9 +42977,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="489" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>53</v>
@@ -43057,9 +43060,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>55</v>
@@ -43140,9 +43143,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="491" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>46</v>
@@ -43223,9 +43226,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="492" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>53</v>
@@ -43306,9 +43309,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="493" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>55</v>
@@ -43389,9 +43392,9 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="494" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>21</v>
@@ -43472,9 +43475,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="495" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>46</v>
@@ -43555,9 +43558,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>60</v>
@@ -43638,9 +43641,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="497" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>57</v>
@@ -43721,9 +43724,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="498" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>30</v>
@@ -43804,9 +43807,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="499" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>53</v>
@@ -43887,9 +43890,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="500" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>38</v>

--- a/data/league_data/spain/18/spain_std.xlsx
+++ b/data/league_data/spain/18/spain_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD088F89-8154-0948-86DD-FB653F818952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4536834F-BF65-674A-B3FD-85D015D70A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="525">
   <si>
     <t>Player</t>
   </si>
@@ -1147,9 +1147,6 @@
     <t>Ousmane Dembélé</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Yannick Carrasco</t>
   </si>
   <si>
@@ -1592,6 +1589,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2461,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>524</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -8303,7 +8306,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>76</v>
@@ -15524,7 +15527,7 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>115</v>
@@ -30713,7 +30716,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>375</v>
+        <v>523</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>21</v>
@@ -30796,7 +30799,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>26</v>
@@ -30879,7 +30882,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>115</v>
@@ -30962,7 +30965,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>32</v>
@@ -31045,7 +31048,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>23</v>
@@ -31128,7 +31131,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>46</v>
@@ -31211,7 +31214,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>38</v>
@@ -31294,7 +31297,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>48</v>
@@ -31377,7 +31380,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>46</v>
@@ -31460,7 +31463,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>57</v>
@@ -31543,7 +31546,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>30</v>
@@ -31626,7 +31629,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>60</v>
@@ -31709,7 +31712,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>63</v>
@@ -31792,7 +31795,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>34</v>
@@ -31875,7 +31878,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>76</v>
@@ -31958,7 +31961,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>34</v>
@@ -32041,7 +32044,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>76</v>
@@ -32124,7 +32127,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>40</v>
@@ -32207,7 +32210,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>48</v>
@@ -32290,7 +32293,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>46</v>
@@ -32373,7 +32376,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>115</v>
@@ -32456,7 +32459,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>34</v>
@@ -32539,7 +32542,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>21</v>
@@ -32622,7 +32625,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>46</v>
@@ -32705,7 +32708,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>53</v>
@@ -32788,7 +32791,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>30</v>
@@ -32871,7 +32874,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>76</v>
@@ -32954,7 +32957,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>40</v>
@@ -33037,7 +33040,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>60</v>
@@ -33120,7 +33123,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>46</v>
@@ -33203,7 +33206,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>28</v>
@@ -33286,7 +33289,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>28</v>
@@ -33369,7 +33372,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -33452,7 +33455,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>46</v>
@@ -33535,7 +33538,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -33618,7 +33621,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>60</v>
@@ -33701,7 +33704,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>76</v>
@@ -33784,7 +33787,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>46</v>
@@ -33867,7 +33870,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>38</v>
@@ -33950,7 +33953,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>34</v>
@@ -34033,7 +34036,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>53</v>
@@ -34116,7 +34119,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>34</v>
@@ -34199,7 +34202,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>63</v>
@@ -34282,7 +34285,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>36</v>
@@ -34365,7 +34368,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>28</v>
@@ -34448,7 +34451,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>46</v>
@@ -34531,7 +34534,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>115</v>
@@ -34614,7 +34617,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>55</v>
@@ -34697,7 +34700,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>34</v>
@@ -34780,7 +34783,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>43</v>
@@ -34863,7 +34866,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>26</v>
@@ -34946,7 +34949,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>28</v>
@@ -35112,7 +35115,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>30</v>
@@ -35195,7 +35198,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>43</v>
@@ -35278,7 +35281,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>46</v>
@@ -35361,7 +35364,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>115</v>
@@ -35444,7 +35447,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>63</v>
@@ -35527,7 +35530,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>34</v>
@@ -35592,7 +35595,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>46</v>
@@ -35675,7 +35678,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>46</v>
@@ -35758,7 +35761,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>60</v>
@@ -35924,7 +35927,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>30</v>
@@ -36007,7 +36010,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>60</v>
@@ -36090,7 +36093,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>28</v>
@@ -36173,7 +36176,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>53</v>
@@ -36256,7 +36259,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>63</v>
@@ -36339,7 +36342,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>76</v>
@@ -36422,7 +36425,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>60</v>
@@ -36505,7 +36508,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>28</v>
@@ -36588,7 +36591,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>53</v>
@@ -36671,7 +36674,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>34</v>
@@ -36754,7 +36757,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>46</v>
@@ -36837,7 +36840,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>30</v>
@@ -36920,7 +36923,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>53</v>
@@ -37003,7 +37006,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>34</v>
@@ -37086,7 +37089,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>48</v>
@@ -37169,7 +37172,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>46</v>
@@ -37252,7 +37255,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>28</v>
@@ -37335,7 +37338,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>60</v>
@@ -37418,7 +37421,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>30</v>
@@ -37501,7 +37504,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>63</v>
@@ -37584,7 +37587,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>30</v>
@@ -37667,7 +37670,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>55</v>
@@ -37750,7 +37753,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>63</v>
@@ -37833,7 +37836,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>23</v>
@@ -37916,7 +37919,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>48</v>
@@ -37999,7 +38002,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>23</v>
@@ -38082,7 +38085,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>23</v>
@@ -38165,7 +38168,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>55</v>
@@ -38248,7 +38251,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>57</v>
@@ -38331,7 +38334,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>57</v>
@@ -38414,7 +38417,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>34</v>
@@ -38497,7 +38500,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>115</v>
@@ -38580,7 +38583,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>53</v>
@@ -38663,7 +38666,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>60</v>
@@ -38746,7 +38749,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>48</v>
@@ -38829,7 +38832,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>34</v>
@@ -38912,7 +38915,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>40</v>
@@ -38995,7 +38998,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>76</v>
@@ -39078,7 +39081,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>76</v>
@@ -39161,7 +39164,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>23</v>
@@ -39244,7 +39247,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>32</v>
@@ -39327,7 +39330,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>28</v>
@@ -39410,7 +39413,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>57</v>
@@ -39576,7 +39579,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>34</v>
@@ -39659,7 +39662,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>46</v>
@@ -39742,7 +39745,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>115</v>
@@ -39825,7 +39828,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>60</v>
@@ -39908,7 +39911,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>48</v>
@@ -39991,7 +39994,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>63</v>
@@ -40074,7 +40077,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>40</v>
@@ -40157,7 +40160,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>57</v>
@@ -40240,7 +40243,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>57</v>
@@ -40323,7 +40326,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>38</v>
@@ -40406,7 +40409,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>55</v>
@@ -40489,7 +40492,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>53</v>
@@ -40572,7 +40575,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>21</v>
@@ -40655,7 +40658,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>55</v>
@@ -40821,7 +40824,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>26</v>
@@ -40904,7 +40907,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>57</v>
@@ -40987,7 +40990,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>23</v>
@@ -41070,7 +41073,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>46</v>
@@ -41153,7 +41156,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>32</v>
@@ -41236,7 +41239,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>40</v>
@@ -41319,7 +41322,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>34</v>
@@ -41402,7 +41405,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>63</v>
@@ -41485,7 +41488,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>36</v>
@@ -41568,7 +41571,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>36</v>
@@ -41651,7 +41654,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>43</v>
@@ -41734,7 +41737,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>36</v>
@@ -41817,7 +41820,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>26</v>
@@ -41900,7 +41903,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>40</v>
@@ -41983,7 +41986,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>36</v>
@@ -42066,7 +42069,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>57</v>
@@ -42149,7 +42152,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>34</v>
@@ -42232,7 +42235,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>55</v>
@@ -42315,7 +42318,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>60</v>
@@ -42398,7 +42401,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>46</v>
@@ -42481,7 +42484,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>40</v>
@@ -42564,7 +42567,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>30</v>
@@ -42647,7 +42650,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>48</v>
@@ -42730,7 +42733,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>43</v>
@@ -42813,7 +42816,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>23</v>
@@ -42896,7 +42899,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>34</v>
@@ -42979,7 +42982,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>53</v>
@@ -43062,7 +43065,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>55</v>
@@ -43145,7 +43148,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>46</v>
@@ -43228,7 +43231,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>53</v>
@@ -43311,7 +43314,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>55</v>
@@ -43394,7 +43397,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>21</v>
@@ -43477,7 +43480,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>46</v>
@@ -43560,7 +43563,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>60</v>
@@ -43643,7 +43646,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>57</v>
@@ -43726,7 +43729,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>30</v>
@@ -43809,7 +43812,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>53</v>
